--- a/data/ClueLayoutTests.xlsx
+++ b/data/ClueLayoutTests.xlsx
@@ -162,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,14 +207,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -225,8 +219,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
-        <bgColor rgb="FFF9CB9C"/>
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -241,6 +241,12 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -282,34 +288,37 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -894,7 +903,7 @@
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -945,7 +954,7 @@
       <c r="T5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="V5" s="5" t="s">
@@ -954,7 +963,7 @@
       <c r="W5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="Y5" s="5" t="s">
@@ -964,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1048,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="13" t="s">
+      <c r="AB6" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1071,7 +1080,7 @@
       <c r="F7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -1132,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="14" t="s">
+      <c r="AB7" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1161,7 +1170,7 @@
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -1176,7 +1185,7 @@
       <c r="M8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="7" t="s">
@@ -1188,7 +1197,7 @@
       <c r="Q8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="S8" s="5" t="s">
@@ -1284,7 +1293,7 @@
       <c r="U9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="V9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="W9" s="7" t="s">
@@ -1521,7 +1530,7 @@
       <c r="R12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="T12" s="5" t="s">
@@ -1561,7 +1570,7 @@
       <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1573,7 +1582,7 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="18" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="7" t="s">
@@ -1697,7 +1706,7 @@
       <c r="V14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="11" t="s">
         <v>32</v>
       </c>
       <c r="X14" s="5" t="s">
@@ -1849,7 +1858,7 @@
       <c r="R16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="T16" s="5" t="s">
@@ -1922,7 +1931,7 @@
       <c r="O17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="18" t="s">
         <v>4</v>
       </c>
       <c r="Q17" s="7" t="s">
@@ -1986,7 +1995,7 @@
       <c r="I18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -2080,7 +2089,7 @@
       <c r="M19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="13" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="7" t="s">
@@ -2123,7 +2132,7 @@
       <c r="AB19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>18.0</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2138,13 +2147,13 @@
       <c r="E20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="7" t="s">
@@ -2153,7 +2162,7 @@
       <c r="J20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="20" t="s">
         <v>18</v>
       </c>
       <c r="L20" s="5" t="s">
@@ -2177,7 +2186,7 @@
       <c r="R20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="20" t="s">
         <v>4</v>
       </c>
       <c r="T20" s="7" t="s">
@@ -2186,7 +2195,7 @@
       <c r="U20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V20" s="15" t="s">
+      <c r="V20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="W20" s="5" t="s">
@@ -2205,7 +2214,7 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>19.0</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2287,7 +2296,7 @@
       <c r="AB21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>20.0</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2341,10 +2350,10 @@
       <c r="R22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="19" t="s">
+      <c r="T22" s="7" t="s">
         <v>4</v>
       </c>
       <c r="U22" s="5" t="s">
@@ -2369,7 +2378,7 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>21.0</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2378,7 +2387,7 @@
       <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2405,7 +2414,7 @@
       <c r="L23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="20" t="s">
         <v>38</v>
       </c>
       <c r="N23" s="5" t="s">
@@ -2451,7 +2460,7 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>22.0</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2533,7 +2542,7 @@
       <c r="AB24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>23.0</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2615,7 +2624,7 @@
       <c r="AB25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>24.0</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -2663,7 +2672,7 @@
       <c r="P26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="18" t="s">
         <v>4</v>
       </c>
       <c r="R26" s="6" t="s">

--- a/data/ClueLayoutTests.xlsx
+++ b/data/ClueLayoutTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rj\Fall_2022_Courses\Software_Engineering\ClueGame\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9260D7-8A24-4D2F-8687-FC1D415671A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE5D75F-9573-4D7C-99F0-CD30999F9A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,12 +229,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -261,6 +255,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -317,14 +317,17 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,14 +335,11 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +567,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
     <col min="23" max="23" width="3.26953125" customWidth="1"/>
     <col min="24" max="24" width="3.453125" customWidth="1"/>
     <col min="25" max="27" width="3.26953125" customWidth="1"/>
-    <col min="28" max="28" width="35.6328125" customWidth="1"/>
+    <col min="28" max="28" width="39.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="13" t="s">
+      <c r="AB5" s="21" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="14" t="s">
+      <c r="AB6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="15" t="s">
+      <c r="AB7" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       <c r="U8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="V8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="W8" s="4" t="s">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="16" t="s">
+      <c r="AB8" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       <c r="W9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="X9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="Y9" s="6" t="s">
@@ -1617,7 +1617,7 @@
       <c r="H13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -1966,7 +1966,7 @@
       <c r="O17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="Q17" s="6" t="s">
@@ -2167,7 +2167,7 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2188,7 +2188,7 @@
       <c r="G20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -2197,7 +2197,7 @@
       <c r="J20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="18" t="s">
         <v>18</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -2221,7 +2221,7 @@
       <c r="R20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="19" t="s">
+      <c r="S20" s="18" t="s">
         <v>4</v>
       </c>
       <c r="T20" s="6" t="s">
@@ -2249,7 +2249,7 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2331,7 +2331,7 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2385,7 +2385,7 @@
       <c r="R22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="19" t="s">
         <v>4</v>
       </c>
       <c r="T22" s="6" t="s">
@@ -2413,7 +2413,7 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2449,7 +2449,7 @@
       <c r="L23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -2495,7 +2495,7 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2577,7 +2577,7 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2659,7 +2659,7 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2707,7 +2707,7 @@
       <c r="P26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q26" s="17" t="s">
+      <c r="Q26" s="16" t="s">
         <v>4</v>
       </c>
       <c r="R26" s="5" t="s">

--- a/data/ClueLayoutTests.xlsx
+++ b/data/ClueLayoutTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rj\Fall_2022_Courses\Software_Engineering\ClueGame\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE5D75F-9573-4D7C-99F0-CD30999F9A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0ECB95-E42F-499B-95B0-226CCA67EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +263,12 @@
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -276,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +576,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1538,7 @@
       <c r="F12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="4" t="s">
